--- a/ShopNow/Content/ExcelUpload/SNCPay_AccessPolicy_ExcelUpload.xlsx
+++ b/ShopNow/Content/ExcelUpload/SNCPay_AccessPolicy_ExcelUpload.xlsx
@@ -338,9 +338,6 @@
     <t>SNPPRIA050</t>
   </si>
   <si>
-    <t>PRODUCT.ACTIVEJSON</t>
-  </si>
-  <si>
     <t>SNPPRAJ051</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>SNPSUUD078</t>
+  </si>
+  <si>
+    <t>PRODUCT.ACTIVEPRODUCT</t>
   </si>
 </sst>
 </file>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,10 +1597,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
@@ -1611,10 +1611,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="2">
         <v>3</v>
@@ -1625,10 +1625,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
@@ -1639,10 +1639,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -1653,10 +1653,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
@@ -1667,10 +1667,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2">
         <v>3</v>
@@ -1681,10 +1681,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -1695,10 +1695,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="2">
         <v>3</v>
@@ -1709,10 +1709,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -1723,10 +1723,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -1737,10 +1737,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -1751,10 +1751,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2">
         <v>3</v>
@@ -1765,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2">
         <v>3</v>
@@ -1779,10 +1779,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="2">
         <v>3</v>
@@ -1793,10 +1793,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2">
         <v>3</v>
@@ -1807,10 +1807,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2">
         <v>3</v>
@@ -1821,10 +1821,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
@@ -1835,10 +1835,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
@@ -1849,10 +1849,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2">
         <v>3</v>
@@ -1863,10 +1863,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="2">
         <v>3</v>
@@ -1877,10 +1877,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -1891,10 +1891,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -1905,10 +1905,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2">
         <v>3</v>
@@ -1919,10 +1919,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
@@ -1933,10 +1933,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D76" s="2">
         <v>3</v>
@@ -1947,10 +1947,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="2">
         <v>3</v>
@@ -1961,10 +1961,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -1975,10 +1975,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="2">
         <v>3</v>
